--- a/1.0-exercicio-filmes/Pasta1.xlsx
+++ b/1.0-exercicio-filmes/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Atividades\1.0-exercicio-filmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641F7BB6-9622-4C47-B0E0-4392F40501BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3D184-D2BE-4968-A5C8-067755EEC9CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7603B138-9784-433C-AAE5-3EC8FAC1AFCB}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A3:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
